--- a/BuildME_config_V1.0.xlsx
+++ b/BuildME_config_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamilami\all\buildings\BuildME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09C6A0-943E-4438-9117-39291281C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E1563-DCE1-4A27-9080-6B6B923824BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="732" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'archetype proxies'!$C$3:$D$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'surrogate elements'!$C$3:$N$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'surrogate elements'!$C$3:$O$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="563">
   <si>
     <t>BuildME</t>
   </si>
@@ -1718,13 +1718,16 @@
   </si>
   <si>
     <t>Framework to calculate building material &amp; energy expenditures.</t>
+  </si>
+  <si>
+    <t>SFH0110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1755,12 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2497,18 +2506,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.84375" customWidth="1"/>
+    <col min="3" max="3" width="39.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2527,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B4" s="20"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2526,7 +2535,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>561</v>
       </c>
@@ -2536,7 +2545,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +2555,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2554,7 +2563,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="10" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2575,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2587,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2601,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +2615,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2629,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2639,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2651,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2663,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -2666,7 +2675,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2687,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2699,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
@@ -2702,7 +2711,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
         <v>28</v>
       </c>
@@ -2714,7 +2723,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="22" t="s">
         <v>30</v>
       </c>
@@ -2724,7 +2733,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="29" t="s">
         <v>31</v>
       </c>
@@ -2736,7 +2745,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="32" t="s">
         <v>32</v>
       </c>
@@ -2748,7 +2757,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="32" t="s">
         <v>34</v>
       </c>
@@ -2760,7 +2769,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
@@ -2772,7 +2781,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="32" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +2793,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="32" t="s">
         <v>40</v>
       </c>
@@ -2796,7 +2805,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="32" t="s">
         <v>42</v>
       </c>
@@ -2808,7 +2817,7 @@
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="32" t="s">
         <v>44</v>
       </c>
@@ -2820,7 +2829,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="35" t="s">
         <v>46</v>
       </c>
@@ -2832,7 +2841,7 @@
       <c r="F36" s="47"/>
       <c r="G36" s="49"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="32" t="s">
         <v>48</v>
       </c>
@@ -2844,7 +2853,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
         <v>50</v>
       </c>
@@ -2856,7 +2865,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="32" t="s">
         <v>52</v>
       </c>
@@ -2869,7 +2878,7 @@
       <c r="G39" s="33"/>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="35" t="s">
         <v>53</v>
       </c>
@@ -2882,7 +2891,7 @@
       <c r="G40" s="47"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="32" t="s">
         <v>55</v>
       </c>
@@ -2894,7 +2903,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2906,7 +2915,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="34"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="32" t="s">
         <v>59</v>
       </c>
@@ -2918,7 +2927,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="34"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="32" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2939,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="32" t="s">
         <v>63</v>
       </c>
@@ -2942,7 +2951,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="15" t="s">
         <v>65</v>
       </c>
@@ -2954,7 +2963,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="39" t="s">
         <v>67</v>
       </c>
@@ -2984,12 +2993,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="9" width="15.5546875" customWidth="1"/>
+    <col min="3" max="9" width="15.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
@@ -3001,7 +3010,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -3058,21 +3067,21 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3093,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>32</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>36</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -3268,7 +3277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>55</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>57</v>
       </c>
@@ -3452,7 +3461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>65</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -3580,20 +3589,20 @@
       <selection activeCell="C13" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>109</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>111</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>113</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>115</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>119</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>123</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -3681,7 +3690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>129</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>130</v>
       </c>
@@ -3697,7 +3706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>131</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>133</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>134</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>135</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>136</v>
       </c>
@@ -3745,7 +3754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>137</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>138</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>139</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>140</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>143</v>
       </c>
@@ -3801,7 +3810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -3809,7 +3818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>145</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>146</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>147</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>148</v>
       </c>
@@ -3841,7 +3850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>149</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>152</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>153</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>154</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>155</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>156</v>
       </c>
@@ -3905,7 +3914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>157</v>
       </c>
@@ -3913,7 +3922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>158</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>159</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>160</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>161</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>162</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>163</v>
       </c>
@@ -3961,7 +3970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>164</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>165</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>166</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>167</v>
       </c>
@@ -3993,7 +4002,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>168</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>169</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>170</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>171</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>172</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>173</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>174</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>175</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
         <v>176</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
         <v>177</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>178</v>
       </c>
@@ -4081,7 +4090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>179</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
         <v>180</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
         <v>181</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>182</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
         <v>183</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>184</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>185</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>186</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>187</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
         <v>188</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
         <v>189</v>
       </c>
@@ -4169,7 +4178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
         <v>190</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
         <v>191</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
         <v>192</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
         <v>193</v>
       </c>
@@ -4201,7 +4210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
         <v>194</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
         <v>195</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
         <v>196</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
         <v>197</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
         <v>198</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
         <v>199</v>
       </c>
@@ -4249,7 +4258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>200</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>201</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
         <v>202</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
         <v>203</v>
       </c>
@@ -4281,7 +4290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>204</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>205</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>206</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>207</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
         <v>208</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C94" t="s">
         <v>209</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
         <v>210</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
         <v>211</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
         <v>212</v>
       </c>
@@ -4353,7 +4362,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
         <v>213</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
         <v>214</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>215</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>216</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>217</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4401,7 +4410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>219</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
         <v>220</v>
       </c>
@@ -4417,7 +4426,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
         <v>221</v>
       </c>
@@ -4425,7 +4434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
         <v>222</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
         <v>223</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
         <v>224</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
         <v>225</v>
       </c>
@@ -4457,7 +4466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
         <v>226</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
         <v>227</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
         <v>228</v>
       </c>
@@ -4481,7 +4490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
         <v>229</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
         <v>230</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
         <v>231</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
         <v>232</v>
       </c>
@@ -4513,7 +4522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
         <v>233</v>
       </c>
@@ -4521,7 +4530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
         <v>234</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
         <v>235</v>
       </c>
@@ -4537,7 +4546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
         <v>236</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
         <v>237</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
         <v>238</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
         <v>239</v>
       </c>
@@ -4569,7 +4578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
         <v>240</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
         <v>241</v>
       </c>
@@ -4585,7 +4594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
         <v>242</v>
       </c>
@@ -4593,7 +4602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
         <v>243</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
         <v>244</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
         <v>245</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
         <v>246</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
         <v>247</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
         <v>248</v>
       </c>
@@ -4641,7 +4650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
         <v>249</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
         <v>250</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
         <v>251</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
         <v>252</v>
       </c>
@@ -4673,7 +4682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
         <v>253</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
         <v>254</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
         <v>255</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
         <v>256</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
         <v>257</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
         <v>258</v>
       </c>
@@ -4721,7 +4730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
         <v>259</v>
       </c>
@@ -4729,7 +4738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
         <v>260</v>
       </c>
@@ -4737,7 +4746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
         <v>261</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
         <v>262</v>
       </c>
@@ -4753,7 +4762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
         <v>263</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
         <v>264</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
         <v>265</v>
       </c>
@@ -4777,7 +4786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
         <v>266</v>
       </c>
@@ -4785,7 +4794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
         <v>267</v>
       </c>
@@ -4793,7 +4802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
         <v>268</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
         <v>269</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
         <v>270</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C156" t="s">
         <v>271</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
         <v>272</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
         <v>273</v>
       </c>
@@ -4841,7 +4850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C159" t="s">
         <v>274</v>
       </c>
@@ -4849,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C160" t="s">
         <v>275</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C161" t="s">
         <v>276</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C162" t="s">
         <v>277</v>
       </c>
@@ -4873,7 +4882,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C163" t="s">
         <v>278</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C164" t="s">
         <v>279</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C165" t="s">
         <v>280</v>
       </c>
@@ -4897,7 +4906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C166" t="s">
         <v>281</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
         <v>282</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C168" t="s">
         <v>283</v>
       </c>
@@ -4921,7 +4930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C169" t="s">
         <v>284</v>
       </c>
@@ -4929,7 +4938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
         <v>285</v>
       </c>
@@ -4937,7 +4946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C171" t="s">
         <v>286</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C172" t="s">
         <v>287</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C173" t="s">
         <v>288</v>
       </c>
@@ -4961,7 +4970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C174" t="s">
         <v>289</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
         <v>290</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C176" t="s">
         <v>291</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
         <v>292</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
         <v>293</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
         <v>294</v>
       </c>
@@ -5009,7 +5018,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
         <v>295</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
         <v>296</v>
       </c>
@@ -5025,7 +5034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C182" t="s">
         <v>297</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C183" t="s">
         <v>298</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C184" t="s">
         <v>299</v>
       </c>
@@ -5049,7 +5058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C185" t="s">
         <v>300</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
         <v>301</v>
       </c>
@@ -5065,7 +5074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
         <v>302</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C188" t="s">
         <v>303</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C189" t="s">
         <v>304</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C190" t="s">
         <v>305</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C191" t="s">
         <v>306</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C192" t="s">
         <v>307</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C193" t="s">
         <v>308</v>
       </c>
@@ -5135,18 +5144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>309</v>
       </c>
@@ -5154,7 +5163,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
         <v>310</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5317,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" s="43" t="s">
         <v>32</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C25" s="28" t="s">
         <v>34</v>
       </c>
@@ -5407,7 +5416,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -5418,7 +5427,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>36</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -5473,7 +5482,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -5484,7 +5493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C34" s="43" t="s">
         <v>38</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C35" s="28" t="s">
         <v>40</v>
       </c>
@@ -5517,7 +5526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C36" s="28" t="s">
         <v>42</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C40" s="43" t="s">
         <v>46</v>
       </c>
@@ -5572,7 +5581,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -5616,7 +5625,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C46" s="43" t="s">
         <v>50</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C47" s="43" t="s">
         <v>52</v>
       </c>
@@ -5649,7 +5658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C48" s="43" t="s">
         <v>53</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C49" s="43" t="s">
         <v>55</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C50" s="43" t="s">
         <v>65</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C51" s="43" t="s">
         <v>67</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C52" s="43" t="s">
         <v>57</v>
       </c>
@@ -5704,7 +5713,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C53" s="43" t="s">
         <v>61</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C54" s="43" t="s">
         <v>63</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C55" s="43" t="s">
         <v>59</v>
       </c>
@@ -5750,22 +5759,22 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" customWidth="1"/>
+    <col min="6" max="6" width="28.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
         <v>403</v>
       </c>
@@ -5773,7 +5782,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>405</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>407</v>
       </c>
@@ -5789,7 +5798,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>408</v>
       </c>
@@ -5797,7 +5806,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>409</v>
       </c>
@@ -5805,7 +5814,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>410</v>
       </c>
@@ -5813,7 +5822,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>411</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>412</v>
       </c>
@@ -5829,7 +5838,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>414</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>415</v>
       </c>
@@ -5845,7 +5854,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>417</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>418</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>420</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>421</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>422</v>
       </c>
@@ -5885,7 +5894,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>423</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>424</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>425</v>
       </c>
@@ -5909,7 +5918,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>426</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>427</v>
       </c>
@@ -5925,7 +5934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>428</v>
       </c>
@@ -5933,7 +5942,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>429</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>430</v>
       </c>
@@ -5949,7 +5958,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>431</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>433</v>
       </c>
@@ -5965,7 +5974,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>434</v>
       </c>
@@ -5973,7 +5982,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>435</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>436</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>437</v>
       </c>
@@ -5997,7 +6006,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>438</v>
       </c>
@@ -6005,7 +6014,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>439</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>441</v>
       </c>
@@ -6021,7 +6030,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>442</v>
       </c>
@@ -6029,7 +6038,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>443</v>
       </c>
@@ -6037,7 +6046,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>444</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>445</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>447</v>
       </c>
@@ -6061,7 +6070,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>448</v>
       </c>
@@ -6069,7 +6078,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>449</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>450</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>451</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>452</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>453</v>
       </c>
@@ -6109,7 +6118,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>454</v>
       </c>
@@ -6117,7 +6126,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>455</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>456</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>457</v>
       </c>
@@ -6141,7 +6150,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>458</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>459</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>460</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>462</v>
       </c>
@@ -6173,7 +6182,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>463</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>464</v>
       </c>
@@ -6189,7 +6198,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>465</v>
       </c>
@@ -6197,7 +6206,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>466</v>
       </c>
@@ -6205,7 +6214,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>467</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>468</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>469</v>
       </c>
@@ -6229,7 +6238,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
         <v>471</v>
       </c>
@@ -6237,7 +6246,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
         <v>472</v>
       </c>
@@ -6245,7 +6254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>473</v>
       </c>
@@ -6253,7 +6262,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>474</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
         <v>475</v>
       </c>
@@ -6269,7 +6278,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
         <v>476</v>
       </c>
@@ -6277,7 +6286,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>477</v>
       </c>
@@ -6285,7 +6294,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
         <v>478</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>479</v>
       </c>
@@ -6301,7 +6310,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>480</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>481</v>
       </c>
@@ -6317,7 +6326,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>482</v>
       </c>
@@ -6325,7 +6334,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
         <v>483</v>
       </c>
@@ -6333,7 +6342,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
         <v>484</v>
       </c>
@@ -6341,7 +6350,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
         <v>485</v>
       </c>
@@ -6349,7 +6358,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
         <v>486</v>
       </c>
@@ -6357,7 +6366,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
         <v>487</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
         <v>488</v>
       </c>
@@ -6373,7 +6382,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
         <v>489</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
         <v>490</v>
       </c>
@@ -6389,7 +6398,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
         <v>491</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
         <v>492</v>
       </c>
@@ -6405,7 +6414,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
         <v>493</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
         <v>494</v>
       </c>
@@ -6421,7 +6430,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>495</v>
       </c>
@@ -6429,7 +6438,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>496</v>
       </c>
@@ -6437,7 +6446,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
         <v>497</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
         <v>498</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>499</v>
       </c>
@@ -6461,7 +6470,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>500</v>
       </c>
@@ -6469,7 +6478,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>501</v>
       </c>
@@ -6477,7 +6486,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>502</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
         <v>503</v>
       </c>
@@ -6493,7 +6502,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C94" t="s">
         <v>504</v>
       </c>
@@ -6501,7 +6510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
         <v>505</v>
       </c>
@@ -6519,17 +6528,17 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="50.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.23046875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>506</v>
       </c>
@@ -6538,7 +6547,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
         <v>507</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>415</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>428</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>512</v>
       </c>
@@ -6594,7 +6603,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>439</v>
       </c>
@@ -6605,7 +6614,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>441</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>442</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>443</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>463</v>
       </c>
@@ -6652,7 +6661,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>464</v>
       </c>
@@ -6666,7 +6675,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>465</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>466</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>412</v>
       </c>
@@ -6708,7 +6717,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>516</v>
       </c>
@@ -6719,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>517</v>
       </c>
@@ -6733,7 +6742,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>518</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>489</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>490</v>
       </c>
@@ -6769,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>491</v>
       </c>
@@ -6789,18 +6798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>520</v>
       </c>
@@ -6808,7 +6817,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
         <v>70</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -6863,7 +6872,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -6874,7 +6883,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -6885,7 +6894,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -6929,7 +6938,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -6940,7 +6949,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -6951,7 +6960,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -6962,7 +6971,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -6973,7 +6982,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -6984,7 +6993,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -7017,7 +7026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -7028,7 +7037,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -7039,7 +7048,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -7050,7 +7059,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -7061,7 +7070,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -7072,7 +7081,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>36</v>
       </c>
@@ -7083,7 +7092,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -7094,7 +7103,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -7105,7 +7114,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -7116,7 +7125,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -7127,7 +7136,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -7138,7 +7147,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -7149,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>38</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>40</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7182,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -7193,7 +7202,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -7204,7 +7213,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -7215,7 +7224,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -7226,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -7248,7 +7257,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -7259,7 +7268,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -7270,7 +7279,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -7281,7 +7290,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>50</v>
       </c>
@@ -7292,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -7314,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>55</v>
       </c>
@@ -7325,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -7336,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>67</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>57</v>
       </c>
@@ -7358,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>61</v>
       </c>
@@ -7369,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>63</v>
       </c>
@@ -7380,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>59</v>
       </c>
@@ -7399,21 +7408,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="4" max="12" width="10.84375" customWidth="1"/>
+    <col min="13" max="13" width="26.84375" customWidth="1"/>
+    <col min="14" max="14" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>522</v>
       </c>
@@ -7429,1169 +7438,1260 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>531</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>532</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4">
+      <c r="H4" s="45"/>
+      <c r="I4">
         <v>0.95</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.75</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>534</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>535</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>531</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>537</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>533</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5">
-        <v>0.3</v>
-      </c>
+      <c r="H5" s="45"/>
       <c r="I5">
         <v>0.3</v>
       </c>
       <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>538</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>539</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>531</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>541</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>533</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6">
+      <c r="H6" s="45"/>
+      <c r="I6">
         <v>0.95</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.75</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>534</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>535</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>531</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>542</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>533</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7">
+      <c r="H7" s="45"/>
+      <c r="I7">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.215</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>538</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>539</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>531</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>532</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>543</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4</v>
       </c>
-      <c r="H8" s="45"/>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
-      <c r="K8" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" t="s">
         <v>534</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>544</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>536</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>531</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>537</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>543</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4</v>
       </c>
-      <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
-      <c r="K9" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" t="s">
         <v>534</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>544</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>536</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>531</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>541</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>543</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.3</v>
       </c>
-      <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
-      <c r="K10" t="s">
+      <c r="K10" s="45"/>
+      <c r="L10" t="s">
         <v>534</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>544</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>536</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>531</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>542</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>543</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
-      <c r="K11" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" t="s">
         <v>534</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>544</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>536</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>531</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>546</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.6</v>
       </c>
-      <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
-      <c r="K12" t="s">
+      <c r="K12" s="45"/>
+      <c r="L12" t="s">
         <v>534</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>544</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>536</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>531</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>548</v>
       </c>
-      <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
-      <c r="K13" t="s">
+      <c r="K13" s="45"/>
+      <c r="L13" t="s">
         <v>534</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>549</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>536</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>531</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>537</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>550</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14">
-        <v>0.25</v>
-      </c>
+      <c r="H14" s="45"/>
       <c r="I14">
         <v>0.25</v>
       </c>
       <c r="J14">
+        <v>0.25</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>485</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>7850</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>531</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>542</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>550</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
+      <c r="H15" s="45"/>
       <c r="I15">
         <v>0.2</v>
       </c>
       <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>485</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>7850</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>531</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>537</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>551</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.15</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.4</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>485</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>7850</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>531</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>542</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>551</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.15</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.4</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>485</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7850</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>552</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>548</v>
       </c>
-      <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
-      <c r="K18" t="s">
+      <c r="K18" s="45"/>
+      <c r="L18" t="s">
         <v>534</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>553</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>552</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>546</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.2</v>
       </c>
-      <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
-      <c r="K19" t="s">
+      <c r="K19" s="45"/>
+      <c r="L19" t="s">
         <v>486</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>552</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>532</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>533</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20">
-        <v>0.3</v>
-      </c>
+      <c r="H20" s="45"/>
       <c r="I20">
         <v>0.3</v>
       </c>
       <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>534</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>553</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>552</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>537</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21">
-        <v>0.3</v>
-      </c>
+      <c r="H21" s="45"/>
       <c r="I21">
         <v>0.3</v>
       </c>
       <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>538</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>539</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>552</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>541</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>533</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22">
+      <c r="H22" s="45"/>
+      <c r="I22">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.215</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>534</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>553</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>552</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>542</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>533</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23">
+      <c r="H23" s="45"/>
+      <c r="I23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.215</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>538</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>539</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>554</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>548</v>
       </c>
-      <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
-      <c r="K24" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" t="s">
         <v>534</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>553</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>554</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>546</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.2</v>
       </c>
-      <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
-      <c r="K25" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" t="s">
         <v>486</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>554</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>532</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26">
-        <v>0.3</v>
-      </c>
+      <c r="H26" s="45"/>
       <c r="I26">
         <v>0.3</v>
       </c>
       <c r="J26">
+        <v>0.3</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>534</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>553</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>554</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>537</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>533</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27">
-        <v>0.3</v>
-      </c>
+      <c r="H27" s="45"/>
       <c r="I27">
         <v>0.3</v>
       </c>
       <c r="J27">
+        <v>0.3</v>
+      </c>
+      <c r="K27">
         <v>3</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>538</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>539</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>554</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>541</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>533</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28">
+      <c r="H28" s="45"/>
+      <c r="I28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.215</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>534</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>553</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>554</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>542</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>533</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29">
+      <c r="H29" s="45"/>
+      <c r="I29">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.215</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>538</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>539</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>555</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>548</v>
       </c>
-      <c r="G30" s="45"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
-      <c r="K30" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" t="s">
         <v>534</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>553</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>555</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>546</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.2</v>
       </c>
-      <c r="H31" s="45"/>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
-      <c r="K31" t="s">
+      <c r="K31" s="45"/>
+      <c r="L31" t="s">
         <v>486</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2400</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>555</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>532</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>533</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32">
-        <v>0.3</v>
-      </c>
+      <c r="H32" s="45"/>
       <c r="I32">
         <v>0.3</v>
       </c>
       <c r="J32">
+        <v>0.3</v>
+      </c>
+      <c r="K32">
         <v>3</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>534</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>553</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>555</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>537</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>533</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33">
-        <v>0.3</v>
-      </c>
+      <c r="H33" s="45"/>
       <c r="I33">
         <v>0.3</v>
       </c>
       <c r="J33">
+        <v>0.3</v>
+      </c>
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>538</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>539</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>555</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>541</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>533</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34">
+      <c r="H34" s="45"/>
+      <c r="I34">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.215</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>534</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>553</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>555</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>542</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>533</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35">
+      <c r="H35" s="45"/>
+      <c r="I35">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.215</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>3</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>538</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>539</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>556</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>532</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>557</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36">
-        <v>0.05</v>
-      </c>
+      <c r="H36" s="45"/>
       <c r="I36">
         <v>0.05</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36">
+        <v>0.05</v>
+      </c>
+      <c r="L36" t="s">
         <v>485</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7850</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>556</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>537</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>557</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37">
+      <c r="H37" s="45"/>
+      <c r="I37">
         <v>0.12</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.26</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>488</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>556</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>541</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>557</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38">
-        <v>0.04</v>
-      </c>
+      <c r="H38" s="45"/>
       <c r="I38">
         <v>0.04</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38">
+        <v>0.04</v>
+      </c>
+      <c r="L38" t="s">
         <v>485</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>7850</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>556</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>542</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>557</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39">
+      <c r="H39" s="45"/>
+      <c r="I39">
         <v>0.12</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.2</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>488</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>556</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>532</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>543</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.2</v>
       </c>
-      <c r="H40" s="45"/>
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
-      <c r="K40" t="s">
+      <c r="K40" s="45"/>
+      <c r="L40" t="s">
         <v>534</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>553</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>556</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>537</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>543</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
-      <c r="K41" t="s">
+      <c r="K41" s="45"/>
+      <c r="L41" t="s">
         <v>534</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>553</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>556</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>541</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>543</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.15</v>
       </c>
-      <c r="H42" s="45"/>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
-      <c r="K42" t="s">
+      <c r="K42" s="45"/>
+      <c r="L42" t="s">
         <v>534</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>553</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>556</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>542</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>543</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.15</v>
       </c>
-      <c r="H43" s="45"/>
       <c r="I43" s="45"/>
       <c r="J43" s="45"/>
-      <c r="K43" t="s">
+      <c r="K43" s="45"/>
+      <c r="L43" t="s">
         <v>534</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>553</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>556</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>546</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.2</v>
       </c>
-      <c r="H44" s="45"/>
       <c r="I44" s="45"/>
       <c r="J44" s="45"/>
-      <c r="K44" t="s">
+      <c r="K44" s="45"/>
+      <c r="L44" t="s">
         <v>486</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>556</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>548</v>
       </c>
-      <c r="G45" s="45"/>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
       <c r="J45" s="45"/>
-      <c r="K45" t="s">
+      <c r="K45" s="45"/>
+      <c r="L45" t="s">
         <v>534</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>553</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>536</v>
       </c>
     </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>562</v>
+      </c>
+      <c r="G46" t="s">
+        <v>557</v>
+      </c>
+      <c r="H46" s="45"/>
+      <c r="I46">
+        <v>0.05</v>
+      </c>
+      <c r="J46">
+        <v>0.05</v>
+      </c>
+      <c r="L46" t="s">
+        <v>485</v>
+      </c>
+      <c r="N46">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>562</v>
+      </c>
+      <c r="G47" t="s">
+        <v>543</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" t="s">
+        <v>534</v>
+      </c>
+      <c r="M47" t="s">
+        <v>553</v>
+      </c>
+      <c r="N47" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>562</v>
+      </c>
+      <c r="G48" t="s">
+        <v>546</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" t="s">
+        <v>486</v>
+      </c>
+      <c r="N48">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>562</v>
+      </c>
+      <c r="G49" t="s">
+        <v>548</v>
+      </c>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" t="s">
+        <v>534</v>
+      </c>
+      <c r="M49" t="s">
+        <v>553</v>
+      </c>
+      <c r="N49" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C3:N13" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="C3:O13" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BuildME_config_V1.0.xlsx
+++ b/BuildME_config_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamilami\all\buildings\BuildME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E1563-DCE1-4A27-9080-6B6B923824BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860861A3-CA83-49BF-A435-9EBF2BA43468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="732" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="563">
   <si>
     <t>BuildME</t>
   </si>
@@ -1669,9 +1669,6 @@
     <t>[0.96, 0.04]</t>
   </si>
   <si>
-    <t>2 layers of basement assumed (height is doubled)</t>
-  </si>
-  <si>
     <t>foundation</t>
   </si>
   <si>
@@ -1720,7 +1717,10 @@
     <t>Framework to calculate building material &amp; energy expenditures.</t>
   </si>
   <si>
-    <t>SFH0110</t>
+    <t>2 layers of basement</t>
+  </si>
+  <si>
+    <t>basement*2</t>
   </si>
 </sst>
 </file>
@@ -2510,14 +2510,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.84375" customWidth="1"/>
-    <col min="3" max="3" width="39.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="20"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2535,9 +2535,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2545,7 +2545,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2563,7 +2563,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="10" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
         <v>31</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="32" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="32" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="32" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
         <v>40</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="32" t="s">
         <v>42</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
         <v>44</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>46</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="F36" s="47"/>
       <c r="G36" s="49"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
         <v>48</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="32" t="s">
         <v>50</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="32" t="s">
         <v>52</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="G39" s="33"/>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="G40" s="47"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="32" t="s">
         <v>55</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="34"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="32" t="s">
         <v>59</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="34"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>61</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>63</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="15" t="s">
         <v>65</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="39" t="s">
         <v>67</v>
       </c>
@@ -2993,12 +2993,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="9" width="15.53515625" customWidth="1"/>
+    <col min="3" max="9" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
@@ -3033,21 +3033,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F4" t="s">
         <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H4" t="s">
         <v>79</v>
@@ -3070,18 +3070,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>81</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>36</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>55</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>57</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>65</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -3589,20 +3589,20 @@
       <selection activeCell="C13" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69140625" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>109</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>111</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>113</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>115</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>119</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>123</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>125</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>129</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>130</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>131</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>133</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>134</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>135</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>136</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>137</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>138</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>139</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>140</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>143</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>145</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>146</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>147</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>148</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>149</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>152</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>153</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>154</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>155</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>156</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>157</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>158</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>159</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>160</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>161</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>162</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>163</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>164</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>165</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>166</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>167</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>168</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>169</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>170</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>171</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>172</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>173</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>174</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>175</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>176</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>177</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>178</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>179</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>180</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>181</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>182</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>183</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>184</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>185</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>186</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>187</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>188</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>189</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>190</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>191</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>192</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>193</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>194</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>195</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>196</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>197</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>198</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>199</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>200</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>201</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>202</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>203</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>204</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>205</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>206</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>207</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>208</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>209</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>210</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>211</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>212</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>213</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>214</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>215</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>216</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>217</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>219</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>220</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>221</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>222</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>223</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>224</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>225</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>226</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>227</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>228</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>229</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>230</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>231</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>232</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>233</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>234</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>235</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>236</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>237</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>238</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>239</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>240</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>241</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>242</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>243</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>244</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>245</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>246</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>247</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>248</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>249</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>250</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>251</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>252</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>253</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>254</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>255</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>256</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>257</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>258</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>259</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>260</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>261</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>262</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>263</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>264</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>265</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>266</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>267</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>268</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>269</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>270</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>271</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>272</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>273</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>274</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>275</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>276</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>277</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>278</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>279</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>280</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>281</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>282</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>283</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>284</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>285</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>286</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>287</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>288</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>289</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>290</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>291</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>292</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>293</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>294</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>295</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>296</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>297</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>298</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>299</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>300</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>301</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>302</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>303</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>304</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>305</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>306</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>307</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>308</v>
       </c>
@@ -5148,14 +5148,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.3046875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>309</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>310</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="43" t="s">
         <v>32</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="28" t="s">
         <v>34</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>36</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="43" t="s">
         <v>38</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="28" t="s">
         <v>40</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="28" t="s">
         <v>42</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="43" t="s">
         <v>46</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="43" t="s">
         <v>50</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" s="43" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" s="43" t="s">
         <v>53</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="43" t="s">
         <v>55</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="43" t="s">
         <v>65</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="43" t="s">
         <v>67</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="43" t="s">
         <v>57</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="43" t="s">
         <v>61</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="43" t="s">
         <v>63</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="43" t="s">
         <v>59</v>
       </c>
@@ -5759,22 +5759,22 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="50.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69140625" customWidth="1"/>
-    <col min="6" max="6" width="28.765625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>403</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>405</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>407</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>408</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>409</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>410</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>411</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>412</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>414</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>415</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>417</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>418</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>420</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>421</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>422</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>423</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>424</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>425</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>426</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>427</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>428</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>429</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>430</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>431</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>433</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>434</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>435</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>436</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>437</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>438</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>439</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>441</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>442</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>443</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>444</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>445</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>447</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>448</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>449</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>450</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>451</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>452</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>453</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>454</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>455</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>456</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>457</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>458</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>459</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>460</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>462</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>463</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>464</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>465</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>466</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>467</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>468</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>469</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>471</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>472</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>473</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>474</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>475</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>476</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>477</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>478</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>479</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>480</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>481</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>482</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>483</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>484</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>485</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>486</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>487</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>488</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>489</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>490</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>491</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>492</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>493</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>494</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>495</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>496</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>497</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>498</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>499</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>500</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>501</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>502</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>503</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>504</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>505</v>
       </c>
@@ -6531,14 +6531,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="50.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.23046875" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>506</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>507</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>415</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>428</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>512</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>439</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>441</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>442</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>443</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>463</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>464</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>465</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>466</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>412</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>516</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>517</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>518</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>489</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>490</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>491</v>
       </c>
@@ -6802,14 +6802,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>520</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>70</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>36</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>38</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>40</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>50</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>55</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>67</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>57</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>61</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>63</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>59</v>
       </c>
@@ -7408,21 +7408,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:P49"/>
+  <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="10.84375" customWidth="1"/>
-    <col min="13" max="13" width="26.84375" customWidth="1"/>
-    <col min="14" max="14" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.84375" customWidth="1"/>
+    <col min="4" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>522</v>
       </c>
@@ -7441,7 +7441,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>531</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>531</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>531</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>531</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>531</v>
       </c>
@@ -7610,10 +7610,10 @@
         <v>532</v>
       </c>
       <c r="G8" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
@@ -7628,10 +7628,10 @@
         <v>536</v>
       </c>
       <c r="O8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>531</v>
       </c>
@@ -7639,10 +7639,10 @@
         <v>537</v>
       </c>
       <c r="G9" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
@@ -7657,10 +7657,10 @@
         <v>536</v>
       </c>
       <c r="O9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>531</v>
       </c>
@@ -7668,10 +7668,10 @@
         <v>541</v>
       </c>
       <c r="G10" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H10">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
@@ -7686,10 +7686,10 @@
         <v>536</v>
       </c>
       <c r="O10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>531</v>
       </c>
@@ -7697,10 +7697,10 @@
         <v>542</v>
       </c>
       <c r="G11" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -7715,15 +7715,15 @@
         <v>536</v>
       </c>
       <c r="O11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>531</v>
       </c>
       <c r="G12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H12">
         <v>0.6</v>
@@ -7741,15 +7741,15 @@
         <v>536</v>
       </c>
       <c r="O12" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>531</v>
       </c>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -7759,16 +7759,16 @@
         <v>534</v>
       </c>
       <c r="M13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N13" t="s">
         <v>536</v>
       </c>
       <c r="O13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>531</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>537</v>
       </c>
       <c r="G14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14">
@@ -7795,7 +7795,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>531</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>542</v>
       </c>
       <c r="G15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15">
@@ -7822,7 +7822,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>531</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>537</v>
       </c>
       <c r="G16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -7851,7 +7851,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>531</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>542</v>
       </c>
       <c r="G17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -7880,12 +7880,12 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
@@ -7895,18 +7895,18 @@
         <v>534</v>
       </c>
       <c r="M18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H19">
         <v>0.2</v>
@@ -7921,9 +7921,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F20" t="s">
         <v>532</v>
@@ -7945,15 +7945,15 @@
         <v>534</v>
       </c>
       <c r="M20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N20" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F21" t="s">
         <v>537</v>
@@ -7981,9 +7981,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F22" t="s">
         <v>541</v>
@@ -8005,15 +8005,15 @@
         <v>534</v>
       </c>
       <c r="M22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F23" t="s">
         <v>542</v>
@@ -8041,12 +8041,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
@@ -8056,18 +8056,18 @@
         <v>534</v>
       </c>
       <c r="M24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H25">
         <v>0.2</v>
@@ -8082,9 +8082,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F26" t="s">
         <v>532</v>
@@ -8106,15 +8106,15 @@
         <v>534</v>
       </c>
       <c r="M26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N26" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F27" t="s">
         <v>537</v>
@@ -8142,9 +8142,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F28" t="s">
         <v>541</v>
@@ -8166,15 +8166,15 @@
         <v>534</v>
       </c>
       <c r="M28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N28" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F29" t="s">
         <v>542</v>
@@ -8202,12 +8202,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
@@ -8217,18 +8217,18 @@
         <v>534</v>
       </c>
       <c r="M30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N30" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H31">
         <v>0.2</v>
@@ -8243,9 +8243,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F32" t="s">
         <v>532</v>
@@ -8267,15 +8267,15 @@
         <v>534</v>
       </c>
       <c r="M32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N32" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F33" t="s">
         <v>537</v>
@@ -8303,9 +8303,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F34" t="s">
         <v>541</v>
@@ -8327,15 +8327,15 @@
         <v>534</v>
       </c>
       <c r="M34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N34" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F35" t="s">
         <v>542</v>
@@ -8363,15 +8363,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F36" t="s">
         <v>532</v>
       </c>
       <c r="G36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36">
@@ -8380,6 +8380,9 @@
       <c r="J36">
         <v>0.05</v>
       </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
       <c r="L36" t="s">
         <v>485</v>
       </c>
@@ -8387,15 +8390,15 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F37" t="s">
         <v>537</v>
       </c>
       <c r="G37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37">
@@ -8404,6 +8407,9 @@
       <c r="J37">
         <v>0.26</v>
       </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
       <c r="L37" t="s">
         <v>488</v>
       </c>
@@ -8411,15 +8417,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F38" t="s">
         <v>541</v>
       </c>
       <c r="G38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38">
@@ -8428,6 +8434,9 @@
       <c r="J38">
         <v>0.04</v>
       </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
       <c r="L38" t="s">
         <v>485</v>
       </c>
@@ -8435,15 +8444,15 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F39" t="s">
         <v>542</v>
       </c>
       <c r="G39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39">
@@ -8452,6 +8461,9 @@
       <c r="J39">
         <v>0.2</v>
       </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
       <c r="L39" t="s">
         <v>488</v>
       </c>
@@ -8459,9 +8471,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F40" t="s">
         <v>532</v>
@@ -8479,15 +8491,15 @@
         <v>534</v>
       </c>
       <c r="M40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F41" t="s">
         <v>537</v>
@@ -8505,15 +8517,15 @@
         <v>534</v>
       </c>
       <c r="M41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N41" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F42" t="s">
         <v>541</v>
@@ -8531,15 +8543,15 @@
         <v>534</v>
       </c>
       <c r="M42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N42" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F43" t="s">
         <v>542</v>
@@ -8557,18 +8569,18 @@
         <v>534</v>
       </c>
       <c r="M43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N43" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H44">
         <v>0.2</v>
@@ -8583,12 +8595,12 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
@@ -8598,94 +8610,9 @@
         <v>534</v>
       </c>
       <c r="M45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N45" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
-        <v>562</v>
-      </c>
-      <c r="G46" t="s">
-        <v>557</v>
-      </c>
-      <c r="H46" s="45"/>
-      <c r="I46">
-        <v>0.05</v>
-      </c>
-      <c r="J46">
-        <v>0.05</v>
-      </c>
-      <c r="L46" t="s">
-        <v>485</v>
-      </c>
-      <c r="N46">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>562</v>
-      </c>
-      <c r="G47" t="s">
-        <v>543</v>
-      </c>
-      <c r="H47">
-        <v>0.2</v>
-      </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" t="s">
-        <v>534</v>
-      </c>
-      <c r="M47" t="s">
-        <v>553</v>
-      </c>
-      <c r="N47" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
-        <v>562</v>
-      </c>
-      <c r="G48" t="s">
-        <v>546</v>
-      </c>
-      <c r="H48">
-        <v>0.2</v>
-      </c>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" t="s">
-        <v>486</v>
-      </c>
-      <c r="N48">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>562</v>
-      </c>
-      <c r="G49" t="s">
-        <v>548</v>
-      </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" t="s">
-        <v>534</v>
-      </c>
-      <c r="M49" t="s">
-        <v>553</v>
-      </c>
-      <c r="N49" t="s">
         <v>536</v>
       </c>
     </row>
@@ -8693,5 +8620,6 @@
   <autoFilter ref="C3:O13" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>